--- a/student pointer of ADCET.xlsx
+++ b/student pointer of ADCET.xlsx
@@ -361,7 +361,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
